--- a/NewMexico/WaterAllocation/NMwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/NewMexico/WaterAllocation/NMwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F08B4C0-F194-4CC7-9363-40E20244F72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD72A296-4D7C-4674-9970-99548E21C224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="472">
   <si>
     <t>Name</t>
   </si>
@@ -1451,6 +1451,12 @@
   </si>
   <si>
     <t>issue with multiple counties per site</t>
+  </si>
+  <si>
+    <t>pod_basin +pod_nbr + pod_suffix</t>
+  </si>
+  <si>
+    <t>combine elements and clean text</t>
   </si>
 </sst>
 </file>
@@ -2902,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3779,7 +3785,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5192,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5918,7 +5924,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>83</v>
       </c>
@@ -5932,13 +5938,13 @@
         <v>38</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>38</v>
+        <v>471</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="H25" s="82" t="s">
         <v>38</v>

--- a/NewMexico/WaterAllocation/NMwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/NewMexico/WaterAllocation/NMwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD72A296-4D7C-4674-9970-99548E21C224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F3653-05BF-4D36-9094-069632F8DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -952,12 +952,6 @@
     <t>Surface Water and Groundwater</t>
   </si>
   <si>
-    <t>Need to check that 'nbr' value for AllocationNativeID.  That might be wrong.  Got the feeling native wr ids should start with letters</t>
-  </si>
-  <si>
-    <t>pretty sure we used a temp fix and used application date for priority date at the time, instead of the actual assigned priority date</t>
-  </si>
-  <si>
     <t>WaDE Unspecified</t>
   </si>
   <si>
@@ -1447,16 +1441,22 @@
     <t xml:space="preserve">    "S":"Small-scale map or aerial photo source"</t>
   </si>
   <si>
-    <t>Issue with given "county".  I don't have a dictionary to translate.  Some sites also appear to be in multiple counties.  Will leave blank for now for temp fix.</t>
-  </si>
-  <si>
     <t>issue with multiple counties per site</t>
   </si>
   <si>
-    <t>pod_basin +pod_nbr + pod_suffix</t>
-  </si>
-  <si>
-    <t>combine elements and clean text</t>
+    <t>pod_file</t>
+  </si>
+  <si>
+    <t>db_file</t>
+  </si>
+  <si>
+    <t>NM technicaly dones't use a priroity date value, will make records all excempt as temp fix.</t>
+  </si>
+  <si>
+    <t>some of their records differ by special characters only. we are going to try and leave special characters in for SiteNativeID and AllocationNativeID, for now</t>
+  </si>
+  <si>
+    <t>some 1-M on counties.  This might be a site native ID issue with NM data.</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2231,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2492,9 +2492,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2534,7 +2531,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2544,10 +2540,21 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2906,23 +2913,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79" style="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="104" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2935,34 +2942,34 @@
       <c r="A4" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="105" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="105" t="s">
         <v>290</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>470</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="88" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="B8" s="104" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>303</v>
+      <c r="B13" s="104" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3243,7 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="89" t="s">
         <v>297</v>
       </c>
       <c r="F9" s="43" t="s">
@@ -3298,7 +3305,7 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="92" t="s">
         <v>298</v>
       </c>
       <c r="F11" s="43" t="s">
@@ -3468,7 +3475,7 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="88" t="s">
         <v>294</v>
       </c>
       <c r="F4" s="30" t="s">
@@ -3500,7 +3507,7 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="89">
         <v>1</v>
       </c>
       <c r="F5" s="16"/>
@@ -3528,7 +3535,7 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="89" t="s">
         <v>111</v>
       </c>
       <c r="F6" s="43" t="s">
@@ -3560,7 +3567,7 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="89" t="s">
         <v>110</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -3592,7 +3599,7 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="89" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="43" t="s">
@@ -3624,7 +3631,7 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="89" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="43" t="s">
@@ -3656,7 +3663,7 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="89">
         <v>10</v>
       </c>
       <c r="F10" s="43" t="s">
@@ -3688,7 +3695,7 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="89" t="s">
         <v>112</v>
       </c>
       <c r="F11" s="43" t="s">
@@ -3720,7 +3727,7 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="89" t="s">
         <v>143</v>
       </c>
       <c r="F12" s="43" t="s">
@@ -3752,7 +3759,7 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="89" t="s">
         <v>143</v>
       </c>
       <c r="F13" s="43" t="s">
@@ -3919,7 +3926,7 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="91" t="s">
         <v>281</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -3983,7 +3990,7 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="91" t="s">
         <v>254</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -4015,7 +4022,7 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="90" t="s">
         <v>255</v>
       </c>
       <c r="F8" s="43" t="s">
@@ -4111,7 +4118,7 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="91" t="s">
         <v>257</v>
       </c>
       <c r="F11" s="43" t="s">
@@ -4517,8 +4524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4647,7 +4654,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -4677,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -4706,13 +4713,13 @@
       <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="104" t="s">
-        <v>469</v>
-      </c>
-      <c r="F7" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="107" t="s">
+      <c r="E7" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
         <v>263</v>
       </c>
       <c r="H7" s="71"/>
@@ -5053,13 +5060,13 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>38</v>
+        <v>467</v>
       </c>
       <c r="H19" s="77"/>
       <c r="I19" s="76">
@@ -5113,7 +5120,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="32"/>
@@ -5198,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5477,7 +5484,7 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="94" t="s">
         <v>293</v>
       </c>
       <c r="F10" s="24"/>
@@ -5505,7 +5512,7 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="93" t="s">
         <v>295</v>
       </c>
       <c r="F11" s="24"/>
@@ -5924,7 +5931,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>83</v>
       </c>
@@ -5938,13 +5945,13 @@
         <v>38</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>471</v>
+        <v>38</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H25" s="82" t="s">
         <v>38</v>
@@ -5987,25 +5994,25 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="F27" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="105" t="s">
+      <c r="F27" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="103" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="82" t="s">
@@ -6166,7 +6173,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H32" s="82" t="s">
         <v>38</v>
@@ -6319,7 +6326,7 @@
       <c r="D37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="103">
+      <c r="E37" s="101">
         <v>44244</v>
       </c>
       <c r="F37" s="24" t="s">
@@ -6384,7 +6391,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
@@ -6442,13 +6449,13 @@
         <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="H41" s="79"/>
       <c r="I41" s="83" t="s">
@@ -6537,14 +6544,14 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="100" t="s">
+      <c r="G44" s="97"/>
+      <c r="H44" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="J44" s="101" t="s">
+      <c r="J44" s="100" t="s">
         <v>288</v>
       </c>
       <c r="K44" s="5"/>
@@ -6704,857 +6711,857 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7630,7 +7637,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="96" t="s">
         <v>284</v>
       </c>
       <c r="B7" t="str">
@@ -7639,7 +7646,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="95" t="s">
         <v>282</v>
       </c>
       <c r="B8" t="str">

--- a/NewMexico/WaterAllocation/NMwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/NewMexico/WaterAllocation/NMwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F3653-05BF-4D36-9094-069632F8DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E05FD1-51B7-425B-BC36-639FE8320337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -280,9 +280,6 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -826,9 +823,6 @@
     <t>grnd_wtr_s, surface_co</t>
   </si>
   <si>
-    <t>if statement; for Surface Water, Groundwater, or Surface and Groundwater</t>
-  </si>
-  <si>
     <t>*make WaDE custom</t>
   </si>
   <si>
@@ -1457,6 +1451,12 @@
   </si>
   <si>
     <t>some 1-M on counties.  This might be a site native ID issue with NM data.</t>
+  </si>
+  <si>
+    <t>WaDEDataMappingUrl</t>
+  </si>
+  <si>
+    <t>if statement; for Surface Water, Groundwater, or Surface and Groundwater; WaDE Blank if not given</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2231,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2540,8 +2540,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2915,61 +2914,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="104" t="s">
-        <v>251</v>
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>289</v>
+        <v>236</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="105" t="s">
-        <v>290</v>
+      <c r="B5" s="104" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>470</v>
+        <v>237</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="104" t="s">
-        <v>469</v>
+      <c r="B8" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>471</v>
+        <v>240</v>
+      </c>
+      <c r="B13" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +2986,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3026,13 +3025,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3073,7 +3072,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3090,7 +3089,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -3102,10 +3101,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3122,7 +3121,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -3134,10 +3133,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3167,7 +3166,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3197,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3224,10 +3223,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3244,7 +3243,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>38</v>
@@ -3257,7 +3256,7 @@
       </c>
       <c r="I9" s="76"/>
       <c r="J9" s="73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3274,7 +3273,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>38</v>
@@ -3286,10 +3285,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3306,7 +3305,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>38</v>
@@ -3318,10 +3317,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3338,7 +3337,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>38</v>
@@ -3350,10 +3349,42 @@
         <v>38</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3368,9 +3399,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{961273F3-9A30-45D2-9254-29B9CE63663B}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{DB092485-E567-493F-AB21-08C1D3952B01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3418,13 +3450,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3459,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3476,7 +3508,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3488,10 +3520,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3519,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3536,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -3548,10 +3580,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3568,7 +3600,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>38</v>
@@ -3580,10 +3612,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3600,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>38</v>
@@ -3612,10 +3644,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3632,7 +3664,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>38</v>
@@ -3644,10 +3676,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3679,7 +3711,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3696,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>38</v>
@@ -3708,10 +3740,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3728,7 +3760,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>38</v>
@@ -3740,10 +3772,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3760,7 +3792,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>38</v>
@@ -3772,10 +3804,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3789,10 +3821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3831,13 +3863,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3878,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3895,7 +3927,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3907,10 +3939,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3927,7 +3959,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -3939,10 +3971,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3959,7 +3991,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -3971,15 +4003,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -3990,7 +4022,7 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="90" t="s">
         <v>254</v>
       </c>
       <c r="F7" s="43" t="s">
@@ -4003,15 +4035,15 @@
         <v>38</v>
       </c>
       <c r="I7" s="76" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J7" s="73" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -4022,8 +4054,8 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="90" t="s">
-        <v>255</v>
+      <c r="E8" s="44" t="s">
+        <v>278</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>38</v>
@@ -4035,27 +4067,27 @@
         <v>38</v>
       </c>
       <c r="I8" s="76" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J8" s="73" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>38</v>
@@ -4067,26 +4099,26 @@
         <v>38</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J9" s="73" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="91" t="s">
         <v>256</v>
       </c>
       <c r="F10" s="43" t="s">
@@ -4099,18 +4131,18 @@
         <v>38</v>
       </c>
       <c r="I10" s="76" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="J10" s="73" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -4118,8 +4150,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="91" t="s">
-        <v>257</v>
+      <c r="E11" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>38</v>
@@ -4131,43 +4163,14 @@
         <v>38</v>
       </c>
       <c r="I11" s="76" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J11" s="73" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>185</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -4190,20 +4193,16 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
-    <sortCondition ref="A17:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
+    <sortCondition ref="A16:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{DB092485-E567-493F-AB21-08C1D3952B01}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{2FDDF3BE-9835-43DC-A785-206CD4949EBC}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{FFAE4788-3559-48E0-93E6-C89E6D52DBBE}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{2FDDF3BE-9835-43DC-A785-206CD4949EBC}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{FFAE4788-3559-48E0-93E6-C89E6D52DBBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4212,7 +4211,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4251,13 +4250,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4290,7 +4289,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4307,7 +4306,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -4317,10 +4316,10 @@
       </c>
       <c r="H4" s="71"/>
       <c r="I4" s="72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4337,7 +4336,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -4350,7 +4349,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4367,7 +4366,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -4380,7 +4379,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4397,7 +4396,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>38</v>
@@ -4407,10 +4406,10 @@
       </c>
       <c r="H7" s="71"/>
       <c r="I7" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4427,20 +4426,20 @@
         <v>38</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H8" s="77"/>
       <c r="I8" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4457,7 +4456,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4470,10 +4469,10 @@
         <v>17839</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>43</v>
       </c>
@@ -4487,20 +4486,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>261</v>
+        <v>471</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H10" s="77"/>
       <c r="I10" s="72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4564,13 +4563,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4609,7 +4608,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4624,7 +4623,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -4634,10 +4633,10 @@
       </c>
       <c r="H4" s="71"/>
       <c r="I4" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4645,7 +4644,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>18</v>
@@ -4654,7 +4653,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -4664,10 +4663,10 @@
       </c>
       <c r="H5" s="71"/>
       <c r="I5" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4684,7 +4683,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -4694,10 +4693,10 @@
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4705,7 +4704,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>18</v>
@@ -4714,20 +4713,20 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H7" s="71"/>
       <c r="I7" s="75" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4750,10 +4749,10 @@
       <c r="G8" s="45"/>
       <c r="H8" s="77"/>
       <c r="I8" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4770,7 +4769,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>38</v>
@@ -4781,7 +4780,7 @@
       <c r="H9" s="71"/>
       <c r="I9" s="76"/>
       <c r="J9" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4798,7 +4797,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>38</v>
@@ -4811,7 +4810,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4819,7 +4818,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>18</v>
@@ -4828,7 +4827,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>38</v>
@@ -4841,7 +4840,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4849,7 +4848,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>18</v>
@@ -4858,7 +4857,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>38</v>
@@ -4871,7 +4870,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4888,18 +4887,18 @@
         <v>38</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H13" s="79"/>
       <c r="I13" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4916,18 +4915,18 @@
         <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="76">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4944,7 +4943,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>38</v>
@@ -4957,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4974,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>38</v>
@@ -4987,12 +4986,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -5004,7 +5003,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5014,7 +5013,7 @@
       </c>
       <c r="H17" s="80"/>
       <c r="I17" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J17" s="80"/>
     </row>
@@ -5036,14 +5035,14 @@
         <v>38</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H18" s="71"/>
       <c r="I18" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5066,14 +5065,14 @@
         <v>38</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H19" s="77"/>
       <c r="I19" s="76">
         <v>3703994</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -5090,7 +5089,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>38</v>
@@ -5100,10 +5099,10 @@
       </c>
       <c r="H20" s="71"/>
       <c r="I20" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5120,16 +5119,16 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="32"/>
       <c r="H21" s="71"/>
       <c r="I21" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5146,7 +5145,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>38</v>
@@ -5156,10 +5155,10 @@
       </c>
       <c r="H22" s="71"/>
       <c r="I22" s="76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5176,7 +5175,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>38</v>
@@ -5189,7 +5188,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5205,7 +5204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5245,13 +5244,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5265,7 +5264,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>33</v>
@@ -5286,7 +5285,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5318,7 +5317,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5350,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5382,7 +5381,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5414,7 +5413,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5446,12 +5445,12 @@
         <v>371091</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5463,7 +5462,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
@@ -5485,7 +5484,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="32"/>
@@ -5496,7 +5495,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5513,7 +5512,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="32"/>
@@ -5524,7 +5523,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5541,7 +5540,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="32"/>
@@ -5552,7 +5551,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5569,7 +5568,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="32"/>
@@ -5580,7 +5579,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5597,7 +5596,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F14" s="59"/>
       <c r="G14" s="68"/>
@@ -5608,12 +5607,12 @@
         <v>38</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>33</v>
@@ -5625,7 +5624,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -5640,12 +5639,12 @@
         <v>5363</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -5657,7 +5656,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -5669,15 +5668,15 @@
         <v>38</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>68</v>
@@ -5689,7 +5688,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5701,15 +5700,15 @@
         <v>38</v>
       </c>
       <c r="I17" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>34</v>
@@ -5721,7 +5720,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -5733,15 +5732,15 @@
         <v>38</v>
       </c>
       <c r="I18" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>15</v>
@@ -5753,7 +5752,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -5765,15 +5764,15 @@
         <v>38</v>
       </c>
       <c r="I19" s="76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>34</v>
@@ -5785,7 +5784,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -5797,15 +5796,15 @@
         <v>38</v>
       </c>
       <c r="I20" s="76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>69</v>
@@ -5817,7 +5816,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -5832,12 +5831,12 @@
         <v>38</v>
       </c>
       <c r="J21" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>33</v>
@@ -5849,7 +5848,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -5864,12 +5863,12 @@
         <v>5200</v>
       </c>
       <c r="J22" s="73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>69</v>
@@ -5881,7 +5880,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>38</v>
@@ -5896,12 +5895,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
@@ -5913,27 +5912,27 @@
         <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>34</v>
@@ -5951,21 +5950,21 @@
         <v>38</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H25" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>68</v>
@@ -5977,57 +5976,57 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H26" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="73" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="F27" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="J27" s="73" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>15</v>
@@ -6039,7 +6038,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6054,15 +6053,15 @@
         <v>38</v>
       </c>
       <c r="J28" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>18</v>
@@ -6071,7 +6070,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6086,15 +6085,15 @@
         <v>44196</v>
       </c>
       <c r="J29" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>18</v>
@@ -6103,7 +6102,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6118,12 +6117,12 @@
         <v>43831</v>
       </c>
       <c r="J30" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>34</v>
@@ -6135,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>38</v>
@@ -6147,15 +6146,15 @@
         <v>38</v>
       </c>
       <c r="I31" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>69</v>
@@ -6173,7 +6172,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H32" s="82" t="s">
         <v>38</v>
@@ -6182,12 +6181,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
@@ -6199,13 +6198,13 @@
         <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H33" s="82" t="s">
         <v>38</v>
@@ -6214,12 +6213,12 @@
         <v>38</v>
       </c>
       <c r="J33" s="73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>34</v>
@@ -6231,7 +6230,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -6243,15 +6242,15 @@
         <v>38</v>
       </c>
       <c r="I34" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -6263,7 +6262,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -6275,15 +6274,15 @@
         <v>38</v>
       </c>
       <c r="I35" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>15</v>
@@ -6295,7 +6294,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6307,15 +6306,15 @@
         <v>38</v>
       </c>
       <c r="I36" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>33</v>
@@ -6342,12 +6341,12 @@
         <v>43874</v>
       </c>
       <c r="J37" s="73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>15</v>
@@ -6359,7 +6358,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>38</v>
@@ -6374,15 +6373,15 @@
         <v>33187</v>
       </c>
       <c r="J38" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>244</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>245</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>18</v>
@@ -6391,7 +6390,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
@@ -6405,7 +6404,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -6417,7 +6416,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>38</v>
@@ -6432,12 +6431,12 @@
         <v>38</v>
       </c>
       <c r="J40" s="73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>69</v>
@@ -6449,7 +6448,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
@@ -6462,12 +6461,12 @@
         <v>38</v>
       </c>
       <c r="J41" s="73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>15</v>
@@ -6479,7 +6478,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6491,15 +6490,15 @@
         <v>38</v>
       </c>
       <c r="I42" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>34</v>
@@ -6511,7 +6510,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>38</v>
@@ -6526,12 +6525,12 @@
         <v>38</v>
       </c>
       <c r="J43" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6549,10 +6548,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="99" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J44" s="100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6563,7 +6562,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>33</v>
@@ -6575,7 +6574,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6590,12 +6589,12 @@
         <v>38</v>
       </c>
       <c r="J45" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>16</v>
@@ -6607,7 +6606,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -6619,18 +6618,18 @@
         <v>38</v>
       </c>
       <c r="I46" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J46" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>18</v>
@@ -6639,7 +6638,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>
@@ -6651,15 +6650,15 @@
         <v>38</v>
       </c>
       <c r="I47" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>34</v>
@@ -6677,16 +6676,16 @@
         <v>38</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H48" s="82" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J48" s="73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6711,857 +6710,857 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -7584,7 +7583,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" t="str">
         <f>""""&amp;A1&amp;""""&amp;","</f>
@@ -7593,7 +7592,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B14" si="0">""""&amp;A2&amp;""""&amp;","</f>
@@ -7602,7 +7601,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -7611,7 +7610,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -7620,7 +7619,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -7629,7 +7628,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -7638,7 +7637,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -7647,7 +7646,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -7656,7 +7655,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -7665,7 +7664,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -7674,7 +7673,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -7683,7 +7682,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -7692,7 +7691,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -7701,7 +7700,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>

--- a/NewMexico/WaterAllocation/NMwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/NewMexico/WaterAllocation/NMwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E05FD1-51B7-425B-BC36-639FE8320337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A371657-2B19-4D71-9F21-63E974C65090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -874,15 +874,9 @@
     <t>total_div</t>
   </si>
   <si>
-    <t>David Hatchner (GIS Manager)</t>
-  </si>
-  <si>
     <t>505-827-3846</t>
   </si>
   <si>
-    <t>ose.webmaster@state.nm.us</t>
-  </si>
-  <si>
     <t>own_fname</t>
   </si>
   <si>
@@ -1457,6 +1451,12 @@
   </si>
   <si>
     <t>if statement; for Surface Water, Groundwater, or Surface and Groundwater; WaDE Blank if not given</t>
+  </si>
+  <si>
+    <t>Julie Valdez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julie.valdez@state.nm.us </t>
   </si>
 </sst>
 </file>
@@ -2914,7 +2914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
@@ -2942,12 +2942,12 @@
         <v>236</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="104" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2955,12 +2955,12 @@
         <v>237</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2968,7 +2968,7 @@
         <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3089,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -3121,7 +3121,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -3243,7 +3243,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>38</v>
@@ -3273,7 +3273,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>38</v>
@@ -3305,7 +3305,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>38</v>
@@ -3337,7 +3337,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>38</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>34</v>
@@ -3508,7 +3508,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3823,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3927,7 +3927,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3959,7 +3959,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>279</v>
+        <v>471</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -3991,7 +3991,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>277</v>
+        <v>470</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -4055,7 +4055,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>38</v>
@@ -4486,7 +4486,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4653,7 +4653,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>38</v>
@@ -4683,7 +4683,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>38</v>
@@ -4713,7 +4713,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>38</v>
@@ -5065,7 +5065,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H19" s="77"/>
       <c r="I19" s="76">
@@ -5119,7 +5119,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="32"/>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5462,7 +5462,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
@@ -5484,7 +5484,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="32"/>
@@ -5512,7 +5512,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="32"/>
@@ -5568,7 +5568,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="32"/>
@@ -5950,7 +5950,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H25" s="82" t="s">
         <v>38</v>
@@ -6390,7 +6390,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6548,10 +6548,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="99" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J44" s="100" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>104</v>
@@ -6676,7 +6676,7 @@
         <v>38</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H48" s="82" t="s">
         <v>38</v>
@@ -6710,857 +6710,857 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="96" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
